--- a/all/res/excel/map.xlsx
+++ b/all/res/excel/map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>y轴格子数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认线的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大线的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,18 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,8 +456,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -450,8 +473,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -460,6 +489,12 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
